--- a/data/pca/factorExposure/factorExposure_2009-07-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01677828891221677</v>
+        <v>0.01660691507786684</v>
       </c>
       <c r="C2">
-        <v>0.001292240965142527</v>
+        <v>-0.0008172085766624998</v>
       </c>
       <c r="D2">
-        <v>0.007539330713084502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009029127897229932</v>
+      </c>
+      <c r="E2">
+        <v>-0.001162768862228503</v>
+      </c>
+      <c r="F2">
+        <v>-0.0145616960868723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09307546930988192</v>
+        <v>0.09254503061320798</v>
       </c>
       <c r="C4">
-        <v>0.0203842175238233</v>
+        <v>-0.01456861784834766</v>
       </c>
       <c r="D4">
-        <v>0.07023762889865642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08352973232859999</v>
+      </c>
+      <c r="E4">
+        <v>-0.02812219940156915</v>
+      </c>
+      <c r="F4">
+        <v>0.03205166202273357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1505705815213132</v>
+        <v>0.160903556713392</v>
       </c>
       <c r="C6">
-        <v>0.02836975363529898</v>
+        <v>-0.02752403537085274</v>
       </c>
       <c r="D6">
-        <v>-0.02916215416806286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02570010562799583</v>
+      </c>
+      <c r="E6">
+        <v>-0.008828595589196284</v>
+      </c>
+      <c r="F6">
+        <v>0.04106018002493842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06179973247507338</v>
+        <v>0.0628553748072031</v>
       </c>
       <c r="C7">
-        <v>0.002341268430748928</v>
+        <v>0.00165778478959393</v>
       </c>
       <c r="D7">
-        <v>0.04456388729867089</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05234040960330085</v>
+      </c>
+      <c r="E7">
+        <v>-0.01226844165879628</v>
+      </c>
+      <c r="F7">
+        <v>0.04681403458644073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06331808034699517</v>
+        <v>0.05804705656451915</v>
       </c>
       <c r="C8">
-        <v>-0.01052768929265528</v>
+        <v>0.0127737200002049</v>
       </c>
       <c r="D8">
-        <v>0.02459695113331619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03143826070294797</v>
+      </c>
+      <c r="E8">
+        <v>-0.01722967475518259</v>
+      </c>
+      <c r="F8">
+        <v>-0.02524680775966155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07189393082475901</v>
+        <v>0.07064495138273101</v>
       </c>
       <c r="C9">
-        <v>0.01681185461679205</v>
+        <v>-0.01021384071773917</v>
       </c>
       <c r="D9">
-        <v>0.07077511937991823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08662151545685244</v>
+      </c>
+      <c r="E9">
+        <v>-0.0240347192805399</v>
+      </c>
+      <c r="F9">
+        <v>0.04702812716381962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08437026537101032</v>
+        <v>0.08940898343803984</v>
       </c>
       <c r="C10">
-        <v>0.0134124903525627</v>
+        <v>-0.02110065331868601</v>
       </c>
       <c r="D10">
-        <v>-0.1636250476038392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1607728645909148</v>
+      </c>
+      <c r="E10">
+        <v>0.03154570823651094</v>
+      </c>
+      <c r="F10">
+        <v>-0.05740586705869868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09159038696439147</v>
+        <v>0.08729526996467397</v>
       </c>
       <c r="C11">
-        <v>0.01771084351565647</v>
+        <v>-0.01080062001222981</v>
       </c>
       <c r="D11">
-        <v>0.1011202357528212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1175384603898435</v>
+      </c>
+      <c r="E11">
+        <v>-0.04644306133167513</v>
+      </c>
+      <c r="F11">
+        <v>0.02198867311776344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09705166329232365</v>
+        <v>0.09038945789523974</v>
       </c>
       <c r="C12">
-        <v>0.01549111119948874</v>
+        <v>-0.008030157222700533</v>
       </c>
       <c r="D12">
-        <v>0.1048745856441813</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1321553922036235</v>
+      </c>
+      <c r="E12">
+        <v>-0.04532887477127184</v>
+      </c>
+      <c r="F12">
+        <v>0.03137122811926388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04398011796473199</v>
+        <v>0.04314245529952543</v>
       </c>
       <c r="C13">
-        <v>0.005777868876623367</v>
+        <v>-0.002250438206475291</v>
       </c>
       <c r="D13">
-        <v>0.03179285810513791</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05319275070195537</v>
+      </c>
+      <c r="E13">
+        <v>0.002152983880550135</v>
+      </c>
+      <c r="F13">
+        <v>0.001137263700676488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01927805781565105</v>
+        <v>0.02356066190036339</v>
       </c>
       <c r="C14">
-        <v>0.01505907424307085</v>
+        <v>-0.01379197450321019</v>
       </c>
       <c r="D14">
-        <v>0.02602985858229996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03300250147206028</v>
+      </c>
+      <c r="E14">
+        <v>-0.01799663949562232</v>
+      </c>
+      <c r="F14">
+        <v>0.01224129575735225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03405160841415848</v>
+        <v>0.03281466711937659</v>
       </c>
       <c r="C15">
-        <v>0.00758111554556189</v>
+        <v>-0.004936684975870824</v>
       </c>
       <c r="D15">
-        <v>0.03552945334533048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04616701750479144</v>
+      </c>
+      <c r="E15">
+        <v>-0.006725269575900497</v>
+      </c>
+      <c r="F15">
+        <v>0.02696844343159216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07659400784148986</v>
+        <v>0.07286893863976882</v>
       </c>
       <c r="C16">
-        <v>0.008385463244065677</v>
+        <v>-0.001258287382483637</v>
       </c>
       <c r="D16">
-        <v>0.1028922175877301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1284758468702956</v>
+      </c>
+      <c r="E16">
+        <v>-0.06093027377838191</v>
+      </c>
+      <c r="F16">
+        <v>0.02645396187022755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0004603675208057864</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002190120395773693</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001397761830734422</v>
+      </c>
+      <c r="E17">
+        <v>-0.00119416702829386</v>
+      </c>
+      <c r="F17">
+        <v>-0.002516223130507522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01799635828160087</v>
+        <v>0.03869751076547678</v>
       </c>
       <c r="C18">
-        <v>-0.003167873688773515</v>
+        <v>0.002914782833535971</v>
       </c>
       <c r="D18">
-        <v>0.02795342445653321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01564451947873126</v>
+      </c>
+      <c r="E18">
+        <v>0.00718491467196373</v>
+      </c>
+      <c r="F18">
+        <v>-0.008964705657184486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06548792139424212</v>
+        <v>0.06246260636301942</v>
       </c>
       <c r="C20">
-        <v>0.006279129457735183</v>
+        <v>-0.0006480141955133885</v>
       </c>
       <c r="D20">
-        <v>0.05832590521609495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07875201762052242</v>
+      </c>
+      <c r="E20">
+        <v>-0.05632004982451339</v>
+      </c>
+      <c r="F20">
+        <v>0.02987780937983216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03957048799407223</v>
+        <v>0.04114102863482106</v>
       </c>
       <c r="C21">
-        <v>0.009904085600984812</v>
+        <v>-0.006476778901475006</v>
       </c>
       <c r="D21">
-        <v>0.03252528964698719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03809062742400984</v>
+      </c>
+      <c r="E21">
+        <v>0.001215763364814227</v>
+      </c>
+      <c r="F21">
+        <v>-0.02321053858290625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04204746573735059</v>
+        <v>0.04475232676341404</v>
       </c>
       <c r="C22">
-        <v>0.001814064269698969</v>
+        <v>-0.001279536842600333</v>
       </c>
       <c r="D22">
-        <v>-0.004314301825973792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007693303664533723</v>
+      </c>
+      <c r="E22">
+        <v>-0.03966223721329851</v>
+      </c>
+      <c r="F22">
+        <v>-0.03712000585132471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04201053345081453</v>
+        <v>0.04472830456500487</v>
       </c>
       <c r="C23">
-        <v>0.001803879062068811</v>
+        <v>-0.001270784504963752</v>
       </c>
       <c r="D23">
-        <v>-0.004291928073875182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.00770824472332814</v>
+      </c>
+      <c r="E23">
+        <v>-0.03984467322098079</v>
+      </c>
+      <c r="F23">
+        <v>-0.03708109387178805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08297557686672301</v>
+        <v>0.07885396173502404</v>
       </c>
       <c r="C24">
-        <v>0.0085933825989878</v>
+        <v>-0.001917010352249439</v>
       </c>
       <c r="D24">
-        <v>0.1072052016992282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1206602080124174</v>
+      </c>
+      <c r="E24">
+        <v>-0.048636366420891</v>
+      </c>
+      <c r="F24">
+        <v>0.02886682942779188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08831518854867448</v>
+        <v>0.08385843088913693</v>
       </c>
       <c r="C25">
-        <v>0.01122180789474844</v>
+        <v>-0.00458642048875051</v>
       </c>
       <c r="D25">
-        <v>0.09295814894807958</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1098849681215989</v>
+      </c>
+      <c r="E25">
+        <v>-0.0318107579553069</v>
+      </c>
+      <c r="F25">
+        <v>0.02574272145600043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05931603799298214</v>
+        <v>0.05965107891981035</v>
       </c>
       <c r="C26">
-        <v>0.01794336166278636</v>
+        <v>-0.01468057544906854</v>
       </c>
       <c r="D26">
-        <v>0.0212233212090447</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04290569520433108</v>
+      </c>
+      <c r="E26">
+        <v>-0.02997260761294303</v>
+      </c>
+      <c r="F26">
+        <v>-0.00638203138900087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1330702772967294</v>
+        <v>0.1424471188042842</v>
       </c>
       <c r="C28">
-        <v>0.01261251805104613</v>
+        <v>-0.02255914407871488</v>
       </c>
       <c r="D28">
-        <v>-0.2727729716901467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2607222496582762</v>
+      </c>
+      <c r="E28">
+        <v>0.06834625450711286</v>
+      </c>
+      <c r="F28">
+        <v>0.003615079241263932</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02560814925692885</v>
+        <v>0.02860685075825646</v>
       </c>
       <c r="C29">
-        <v>0.009706936091949475</v>
+        <v>-0.008866432037917664</v>
       </c>
       <c r="D29">
-        <v>0.0244348790680293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03086131857883277</v>
+      </c>
+      <c r="E29">
+        <v>-0.01309571638063119</v>
+      </c>
+      <c r="F29">
+        <v>-0.01385368790621117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06474496991951584</v>
+        <v>0.0584885548395797</v>
       </c>
       <c r="C30">
-        <v>0.01008741806080414</v>
+        <v>-0.0028368962579117</v>
       </c>
       <c r="D30">
-        <v>0.06574613195566989</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08750292208785243</v>
+      </c>
+      <c r="E30">
+        <v>-0.01212229337093049</v>
+      </c>
+      <c r="F30">
+        <v>0.08041440846025712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0508300199443243</v>
+        <v>0.05082633170510872</v>
       </c>
       <c r="C31">
-        <v>0.01717636685310605</v>
+        <v>-0.01596468618748349</v>
       </c>
       <c r="D31">
-        <v>0.02060199526684544</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02467523505089632</v>
+      </c>
+      <c r="E31">
+        <v>-0.02860340746895304</v>
+      </c>
+      <c r="F31">
+        <v>-0.001696643753147098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04663212956752929</v>
+        <v>0.05083040826366957</v>
       </c>
       <c r="C32">
-        <v>0.002192118040869241</v>
+        <v>0.001732586527225025</v>
       </c>
       <c r="D32">
-        <v>0.01997285811721387</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03510373128619936</v>
+      </c>
+      <c r="E32">
+        <v>-0.03359310817342873</v>
+      </c>
+      <c r="F32">
+        <v>0.001222890231464717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09211831966848479</v>
+        <v>0.08905131149671915</v>
       </c>
       <c r="C33">
-        <v>0.01409241319392651</v>
+        <v>-0.006820996262640109</v>
       </c>
       <c r="D33">
-        <v>0.08123250240382808</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1029273176117621</v>
+      </c>
+      <c r="E33">
+        <v>-0.04562434223104105</v>
+      </c>
+      <c r="F33">
+        <v>0.04020351507643415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06974938098477225</v>
+        <v>0.0673777124609659</v>
       </c>
       <c r="C34">
-        <v>0.01589197591612425</v>
+        <v>-0.01018011514810842</v>
       </c>
       <c r="D34">
-        <v>0.08836692237174011</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1093354839477463</v>
+      </c>
+      <c r="E34">
+        <v>-0.03466934552046733</v>
+      </c>
+      <c r="F34">
+        <v>0.03240612468839638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02406360146168887</v>
+        <v>0.02607498346288897</v>
       </c>
       <c r="C35">
-        <v>0.003061104379145663</v>
+        <v>-0.002852538466545347</v>
       </c>
       <c r="D35">
-        <v>0.006750215698845124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01202744061484834</v>
+      </c>
+      <c r="E35">
+        <v>-0.01232651836636859</v>
+      </c>
+      <c r="F35">
+        <v>0.0006400345381735607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02632765886324025</v>
+        <v>0.02763361685016922</v>
       </c>
       <c r="C36">
-        <v>0.00787356036372365</v>
+        <v>-0.006909779543818897</v>
       </c>
       <c r="D36">
-        <v>0.0385141682951097</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03917908785458085</v>
+      </c>
+      <c r="E36">
+        <v>-0.01645554694172669</v>
+      </c>
+      <c r="F36">
+        <v>0.01512045980112887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0005478099440283792</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006580021514357858</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002243825837897262</v>
+      </c>
+      <c r="E37">
+        <v>0.0001726914319293503</v>
+      </c>
+      <c r="F37">
+        <v>-0.002297956413076329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1147992278950994</v>
+        <v>0.1028916288374694</v>
       </c>
       <c r="C39">
-        <v>0.02427426087951183</v>
+        <v>-0.01600726023633719</v>
       </c>
       <c r="D39">
-        <v>0.1425192756081324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1521322429730897</v>
+      </c>
+      <c r="E39">
+        <v>-0.05761395383741456</v>
+      </c>
+      <c r="F39">
+        <v>0.0293391045194382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03820031831450554</v>
+        <v>0.04284806885836345</v>
       </c>
       <c r="C40">
-        <v>0.009271423169010255</v>
+        <v>-0.00751643281059174</v>
       </c>
       <c r="D40">
-        <v>0.01706903937711022</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0318245718374245</v>
+      </c>
+      <c r="E40">
+        <v>-0.002449630969817496</v>
+      </c>
+      <c r="F40">
+        <v>-0.01855604054127771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02546573325973045</v>
+        <v>0.02808949246497948</v>
       </c>
       <c r="C41">
-        <v>0.007291999119346907</v>
+        <v>-0.006873290172289636</v>
       </c>
       <c r="D41">
-        <v>0.008632100407680187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01050673740968044</v>
+      </c>
+      <c r="E41">
+        <v>-0.01211449007001727</v>
+      </c>
+      <c r="F41">
+        <v>-0.005849246838087199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04228872015393503</v>
+        <v>0.04057426823836019</v>
       </c>
       <c r="C43">
-        <v>0.00830490057655978</v>
+        <v>-0.007464582723853194</v>
       </c>
       <c r="D43">
-        <v>0.01485469903618189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01908289339345441</v>
+      </c>
+      <c r="E43">
+        <v>-0.02507848019877471</v>
+      </c>
+      <c r="F43">
+        <v>-0.01346616377593968</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0718199332405874</v>
+        <v>0.07900050114803968</v>
       </c>
       <c r="C44">
-        <v>0.02599965536723718</v>
+        <v>-0.01929628694682596</v>
       </c>
       <c r="D44">
-        <v>0.08547476925353008</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09587814514317314</v>
+      </c>
+      <c r="E44">
+        <v>-0.05994478641896447</v>
+      </c>
+      <c r="F44">
+        <v>0.160328191221122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02171419012817201</v>
+        <v>0.02404994465767732</v>
       </c>
       <c r="C46">
-        <v>0.004017272154535322</v>
+        <v>-0.003479619542138276</v>
       </c>
       <c r="D46">
-        <v>0.005046215086902316</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01290540698989449</v>
+      </c>
+      <c r="E46">
+        <v>-0.02678796960407738</v>
+      </c>
+      <c r="F46">
+        <v>-0.006778614688415227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05282282903779051</v>
+        <v>0.05309300212326446</v>
       </c>
       <c r="C47">
-        <v>0.004798199718307789</v>
+        <v>-0.004084785415266311</v>
       </c>
       <c r="D47">
-        <v>0.008517599434891047</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01080335547715181</v>
+      </c>
+      <c r="E47">
+        <v>-0.023013426204364</v>
+      </c>
+      <c r="F47">
+        <v>-0.03202649626272391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04851051979703382</v>
+        <v>0.0502326294018773</v>
       </c>
       <c r="C48">
-        <v>0.004888708750471429</v>
+        <v>-0.002117270605053183</v>
       </c>
       <c r="D48">
-        <v>0.04291079557170914</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0495665159762671</v>
+      </c>
+      <c r="E48">
+        <v>0.005252231591998563</v>
+      </c>
+      <c r="F48">
+        <v>0.008565310086168482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.202362937083455</v>
+        <v>0.2005696043032149</v>
       </c>
       <c r="C49">
-        <v>0.0220897273420693</v>
+        <v>-0.01956175319181124</v>
       </c>
       <c r="D49">
-        <v>-0.01545527783552943</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005753247556980303</v>
+      </c>
+      <c r="E49">
+        <v>-0.03140718682634378</v>
+      </c>
+      <c r="F49">
+        <v>0.04309441483085099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04960966122266081</v>
+        <v>0.05114113548342564</v>
       </c>
       <c r="C50">
-        <v>0.01323693507809072</v>
+        <v>-0.01173738747462267</v>
       </c>
       <c r="D50">
-        <v>0.02140864091574802</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0230994056466015</v>
+      </c>
+      <c r="E50">
+        <v>-0.02935365975736715</v>
+      </c>
+      <c r="F50">
+        <v>0.009789713934631007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1560827924059262</v>
+        <v>0.1497019476176241</v>
       </c>
       <c r="C52">
-        <v>0.02037732500429942</v>
+        <v>-0.01855400260336103</v>
       </c>
       <c r="D52">
-        <v>0.04917883558770074</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04183385863979759</v>
+      </c>
+      <c r="E52">
+        <v>-0.0216246089495646</v>
+      </c>
+      <c r="F52">
+        <v>0.04350791920044132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1734077205223815</v>
+        <v>0.1700651626229363</v>
       </c>
       <c r="C53">
-        <v>0.0203634821691613</v>
+        <v>-0.02093017121909276</v>
       </c>
       <c r="D53">
-        <v>0.01340276717191728</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005588621562601178</v>
+      </c>
+      <c r="E53">
+        <v>-0.02906039652971639</v>
+      </c>
+      <c r="F53">
+        <v>0.07356658317985293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01729265956571919</v>
+        <v>0.02010068877673167</v>
       </c>
       <c r="C54">
-        <v>0.01230008113528376</v>
+        <v>-0.01098021283494559</v>
       </c>
       <c r="D54">
-        <v>0.02760875045256928</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03404810778377113</v>
+      </c>
+      <c r="E54">
+        <v>-0.02139151451224427</v>
+      </c>
+      <c r="F54">
+        <v>-0.001868870060174452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1162052683525002</v>
+        <v>0.1155849781573741</v>
       </c>
       <c r="C55">
-        <v>0.01815611210843078</v>
+        <v>-0.0184715910831137</v>
       </c>
       <c r="D55">
-        <v>0.01147783476791009</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008116374933524623</v>
+      </c>
+      <c r="E55">
+        <v>-0.02523492638640839</v>
+      </c>
+      <c r="F55">
+        <v>0.0459144675219153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1796993159257593</v>
+        <v>0.1762288884116567</v>
       </c>
       <c r="C56">
-        <v>0.01813829802356852</v>
+        <v>-0.0189465796440507</v>
       </c>
       <c r="D56">
-        <v>0.006856858767297819</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002469557003131657</v>
+      </c>
+      <c r="E56">
+        <v>-0.03231593552040911</v>
+      </c>
+      <c r="F56">
+        <v>0.05274161502359782</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04861158475048553</v>
+        <v>0.04568141781249466</v>
       </c>
       <c r="C58">
-        <v>0.00586307660527907</v>
+        <v>0.000397715590130869</v>
       </c>
       <c r="D58">
-        <v>0.05737529660548683</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07358385359491033</v>
+      </c>
+      <c r="E58">
+        <v>-0.03516152222249481</v>
+      </c>
+      <c r="F58">
+        <v>-0.03648843157919583</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.162087249983947</v>
+        <v>0.1670057167126231</v>
       </c>
       <c r="C59">
-        <v>0.0140116312525466</v>
+        <v>-0.0228821488786004</v>
       </c>
       <c r="D59">
-        <v>-0.224609765435784</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2187714360856016</v>
+      </c>
+      <c r="E59">
+        <v>0.04896192724621751</v>
+      </c>
+      <c r="F59">
+        <v>-0.03562497703686038</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2378993226150368</v>
+        <v>0.2313080787853736</v>
       </c>
       <c r="C60">
-        <v>0.00221118029775465</v>
+        <v>0.0009892995115226748</v>
       </c>
       <c r="D60">
-        <v>0.04219280245506075</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0401359845482669</v>
+      </c>
+      <c r="E60">
+        <v>-0.006895781288904778</v>
+      </c>
+      <c r="F60">
+        <v>0.0003020867232735915</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0864159849776501</v>
+        <v>0.0785704160577942</v>
       </c>
       <c r="C61">
-        <v>0.01794085735321065</v>
+        <v>-0.01142661375822958</v>
       </c>
       <c r="D61">
-        <v>0.1003170125494214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1170564025529245</v>
+      </c>
+      <c r="E61">
+        <v>-0.03752073351812004</v>
+      </c>
+      <c r="F61">
+        <v>0.01183660344604413</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1706271450402876</v>
+        <v>0.1684729344472304</v>
       </c>
       <c r="C62">
-        <v>0.02168948374552344</v>
+        <v>-0.02147261648313952</v>
       </c>
       <c r="D62">
-        <v>0.006394791579137583</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004910352352220051</v>
+      </c>
+      <c r="E62">
+        <v>-0.03231511315082534</v>
+      </c>
+      <c r="F62">
+        <v>0.03794219277401159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0431074864188594</v>
+        <v>0.04612667427375509</v>
       </c>
       <c r="C63">
-        <v>0.005916648073799672</v>
+        <v>-0.001825329813749279</v>
       </c>
       <c r="D63">
-        <v>0.04444197473934916</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05969985684101647</v>
+      </c>
+      <c r="E63">
+        <v>-0.02462211866264432</v>
+      </c>
+      <c r="F63">
+        <v>0.003126348725672082</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1131556848987824</v>
+        <v>0.1108251812940648</v>
       </c>
       <c r="C64">
-        <v>0.01563644547866145</v>
+        <v>-0.01192644067502411</v>
       </c>
       <c r="D64">
-        <v>0.03087505408165278</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04323789751250434</v>
+      </c>
+      <c r="E64">
+        <v>-0.02253917928261548</v>
+      </c>
+      <c r="F64">
+        <v>0.02565806514134457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1412074815275948</v>
+        <v>0.1522221982450402</v>
       </c>
       <c r="C65">
-        <v>0.0341925995572731</v>
+        <v>-0.03465514071501256</v>
       </c>
       <c r="D65">
-        <v>-0.0530888189331325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04615843436720218</v>
+      </c>
+      <c r="E65">
+        <v>-0.004613942055850029</v>
+      </c>
+      <c r="F65">
+        <v>0.03553431840516749</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.138240053316514</v>
+        <v>0.1230551048953874</v>
       </c>
       <c r="C66">
-        <v>0.02268782287671673</v>
+        <v>-0.01432501439129113</v>
       </c>
       <c r="D66">
-        <v>0.1214743732488997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1400129944387507</v>
+      </c>
+      <c r="E66">
+        <v>-0.06314037760546566</v>
+      </c>
+      <c r="F66">
+        <v>0.03243775499592094</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06275828611908471</v>
+        <v>0.05625665192248099</v>
       </c>
       <c r="C67">
-        <v>0.005535588003595098</v>
+        <v>-0.003039407497424244</v>
       </c>
       <c r="D67">
-        <v>0.05549564517254239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05642439879580713</v>
+      </c>
+      <c r="E67">
+        <v>-0.01677754038724252</v>
+      </c>
+      <c r="F67">
+        <v>-0.02947935904745935</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1059659716511911</v>
+        <v>0.116627896941429</v>
       </c>
       <c r="C68">
-        <v>0.02238980964351165</v>
+        <v>-0.03338539155596656</v>
       </c>
       <c r="D68">
-        <v>-0.2692259571110361</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2615683485819549</v>
+      </c>
+      <c r="E68">
+        <v>0.08842335054191768</v>
+      </c>
+      <c r="F68">
+        <v>-0.002212157843803851</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04005751374294892</v>
+        <v>0.03881092456630712</v>
       </c>
       <c r="C69">
-        <v>0.002081349766737176</v>
+        <v>-0.001201209931564913</v>
       </c>
       <c r="D69">
-        <v>0.006767677399152142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008665177996393256</v>
+      </c>
+      <c r="E69">
+        <v>-0.02377986135790335</v>
+      </c>
+      <c r="F69">
+        <v>0.0008777406603808556</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06645066664877655</v>
+        <v>0.06611072494132471</v>
       </c>
       <c r="C70">
-        <v>-0.0246721142097335</v>
+        <v>0.02736230972517585</v>
       </c>
       <c r="D70">
-        <v>-0.007844021441955597</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0253942164694449</v>
+      </c>
+      <c r="E70">
+        <v>0.03069658671534541</v>
+      </c>
+      <c r="F70">
+        <v>-0.1766558653715352</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1246015314220341</v>
+        <v>0.1364260625956505</v>
       </c>
       <c r="C71">
-        <v>0.0262238622396006</v>
+        <v>-0.03784803757172629</v>
       </c>
       <c r="D71">
-        <v>-0.284944794949878</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2718531847549548</v>
+      </c>
+      <c r="E71">
+        <v>0.09815377025982766</v>
+      </c>
+      <c r="F71">
+        <v>0.003837759179819341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1378210544536358</v>
+        <v>0.1435782783996641</v>
       </c>
       <c r="C72">
-        <v>0.027885467662635</v>
+        <v>-0.02774858048320022</v>
       </c>
       <c r="D72">
-        <v>0.005937316295902243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004541480053702516</v>
+      </c>
+      <c r="E72">
+        <v>-0.03635862413533405</v>
+      </c>
+      <c r="F72">
+        <v>0.03029682853273183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2079167821610474</v>
+        <v>0.2054948512472797</v>
       </c>
       <c r="C73">
-        <v>0.01751706205634262</v>
+        <v>-0.01357140728989211</v>
       </c>
       <c r="D73">
-        <v>0.01104553689314667</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01774652811308483</v>
+      </c>
+      <c r="E73">
+        <v>-0.06662952491409745</v>
+      </c>
+      <c r="F73">
+        <v>0.04006455975397243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09382486741955451</v>
+        <v>0.09541917612484914</v>
       </c>
       <c r="C74">
-        <v>0.01431111622305715</v>
+        <v>-0.01415512316632192</v>
       </c>
       <c r="D74">
-        <v>0.01951699315516345</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01644235812950105</v>
+      </c>
+      <c r="E74">
+        <v>-0.04357473961092043</v>
+      </c>
+      <c r="F74">
+        <v>0.05489252340401676</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.133438774776472</v>
+        <v>0.1266326219192326</v>
       </c>
       <c r="C75">
-        <v>0.03041101731444859</v>
+        <v>-0.02902963299472338</v>
       </c>
       <c r="D75">
-        <v>0.03003828278066999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02895227293775917</v>
+      </c>
+      <c r="E75">
+        <v>-0.05678007308405141</v>
+      </c>
+      <c r="F75">
+        <v>0.02275977702681031</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08330806594069608</v>
+        <v>0.09023109284038085</v>
       </c>
       <c r="C77">
-        <v>0.01529403183780624</v>
+        <v>-0.008462745444054896</v>
       </c>
       <c r="D77">
-        <v>0.09773425429927837</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.114325266856352</v>
+      </c>
+      <c r="E77">
+        <v>-0.04384157054207738</v>
+      </c>
+      <c r="F77">
+        <v>0.03295449245265613</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.0990968838799177</v>
+        <v>0.09979254905909209</v>
       </c>
       <c r="C78">
-        <v>0.04394022525395232</v>
+        <v>-0.03842203297196081</v>
       </c>
       <c r="D78">
-        <v>0.1125110966106974</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1135323457433963</v>
+      </c>
+      <c r="E78">
+        <v>-0.07642458984320614</v>
+      </c>
+      <c r="F78">
+        <v>0.0519566289154865</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1644679787943525</v>
+        <v>0.1629239115989464</v>
       </c>
       <c r="C79">
-        <v>0.02495637485110677</v>
+        <v>-0.02400780263839521</v>
       </c>
       <c r="D79">
-        <v>0.01231692663378209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01276904254158279</v>
+      </c>
+      <c r="E79">
+        <v>-0.04412831383710895</v>
+      </c>
+      <c r="F79">
+        <v>0.01162187398491773</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0846185514798856</v>
+        <v>0.08169262837389039</v>
       </c>
       <c r="C80">
-        <v>0.002001750381505732</v>
+        <v>0.0003522961949789814</v>
       </c>
       <c r="D80">
-        <v>0.04838500926789746</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05537294048346028</v>
+      </c>
+      <c r="E80">
+        <v>-0.03370135158828245</v>
+      </c>
+      <c r="F80">
+        <v>-0.01893595827731147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1200424861068823</v>
+        <v>0.1174395045478584</v>
       </c>
       <c r="C81">
-        <v>0.03248156025842745</v>
+        <v>-0.032595045674782</v>
       </c>
       <c r="D81">
-        <v>0.02306361384545851</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01414392113168392</v>
+      </c>
+      <c r="E81">
+        <v>-0.05470015845414587</v>
+      </c>
+      <c r="F81">
+        <v>0.01885871768645721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1656232282944446</v>
+        <v>0.1656114196953533</v>
       </c>
       <c r="C82">
-        <v>0.02579282629705294</v>
+        <v>-0.0262837452851697</v>
       </c>
       <c r="D82">
-        <v>0.01334310852156999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.00272503006097535</v>
+      </c>
+      <c r="E82">
+        <v>-0.02638674551691239</v>
+      </c>
+      <c r="F82">
+        <v>0.08106628583557099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06588860278108706</v>
+        <v>0.05858382547184095</v>
       </c>
       <c r="C83">
-        <v>0.006394725110226577</v>
+        <v>-0.003478007684938444</v>
       </c>
       <c r="D83">
-        <v>0.03862476472310405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04936931846231891</v>
+      </c>
+      <c r="E83">
+        <v>-0.00253205961796704</v>
+      </c>
+      <c r="F83">
+        <v>-0.02919291314773786</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06413965494345222</v>
+        <v>0.05765219090421449</v>
       </c>
       <c r="C84">
-        <v>0.01452382851832911</v>
+        <v>-0.01104058878860501</v>
       </c>
       <c r="D84">
-        <v>0.06505847116159075</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07229366853937726</v>
+      </c>
+      <c r="E84">
+        <v>-0.01420747022142069</v>
+      </c>
+      <c r="F84">
+        <v>0.01333291094622863</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1378102367610925</v>
+        <v>0.1344315629839805</v>
       </c>
       <c r="C85">
-        <v>0.02920223505295563</v>
+        <v>-0.02907255419171682</v>
       </c>
       <c r="D85">
-        <v>0.0154985471185558</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009167694365131394</v>
+      </c>
+      <c r="E85">
+        <v>-0.03554903285416185</v>
+      </c>
+      <c r="F85">
+        <v>0.04635857540210502</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1002437269225324</v>
+        <v>0.09275425604302295</v>
       </c>
       <c r="C86">
-        <v>-0.00315533471749934</v>
+        <v>0.006042588012455555</v>
       </c>
       <c r="D86">
-        <v>0.002969898515450227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0493270027123732</v>
+      </c>
+      <c r="E86">
+        <v>-0.2378532272610566</v>
+      </c>
+      <c r="F86">
+        <v>-0.904314964676205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09989331425605244</v>
+        <v>0.09314180151974068</v>
       </c>
       <c r="C87">
-        <v>0.02837736133627267</v>
+        <v>-0.01955790729783554</v>
       </c>
       <c r="D87">
-        <v>0.06903769938366557</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09530882669792273</v>
+      </c>
+      <c r="E87">
+        <v>0.05241672839456558</v>
+      </c>
+      <c r="F87">
+        <v>0.04833459022025704</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06038786212381159</v>
+        <v>0.06007955185885481</v>
       </c>
       <c r="C88">
-        <v>0.00544205371535468</v>
+        <v>-0.002616519973056247</v>
       </c>
       <c r="D88">
-        <v>0.05318408217495082</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04960806268391254</v>
+      </c>
+      <c r="E88">
+        <v>-0.0238280102150674</v>
+      </c>
+      <c r="F88">
+        <v>0.01591235182160898</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1173739457411535</v>
+        <v>0.1275502723098155</v>
       </c>
       <c r="C89">
-        <v>0.003499540437777676</v>
+        <v>-0.0131268461606453</v>
       </c>
       <c r="D89">
-        <v>-0.2571818515219284</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2450603141921978</v>
+      </c>
+      <c r="E89">
+        <v>0.09241505760514158</v>
+      </c>
+      <c r="F89">
+        <v>-0.01100515037567051</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1359192524495406</v>
+        <v>0.1512198918622881</v>
       </c>
       <c r="C90">
-        <v>0.02285130466777345</v>
+        <v>-0.03451554590392077</v>
       </c>
       <c r="D90">
-        <v>-0.2721968755603962</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2689523944517482</v>
+      </c>
+      <c r="E90">
+        <v>0.1137725263198361</v>
+      </c>
+      <c r="F90">
+        <v>-0.01218151583911788</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1203192954797375</v>
+        <v>0.1209383689381349</v>
       </c>
       <c r="C91">
-        <v>0.02005230526812104</v>
+        <v>-0.02071717201632204</v>
       </c>
       <c r="D91">
-        <v>-0.008391222651056185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01627466174577267</v>
+      </c>
+      <c r="E91">
+        <v>-0.05442686135840113</v>
+      </c>
+      <c r="F91">
+        <v>-0.001446426181437206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1377413933052819</v>
+        <v>0.1470991205015748</v>
       </c>
       <c r="C92">
-        <v>0.01304512548860648</v>
+        <v>-0.02507806069742527</v>
       </c>
       <c r="D92">
-        <v>-0.305678685185836</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.290008091065965</v>
+      </c>
+      <c r="E92">
+        <v>0.1030425444590814</v>
+      </c>
+      <c r="F92">
+        <v>-0.01960479432904121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1387927471067238</v>
+        <v>0.1521762909052827</v>
       </c>
       <c r="C93">
-        <v>0.01849478807673404</v>
+        <v>-0.02930846764884251</v>
       </c>
       <c r="D93">
-        <v>-0.2687609923307277</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2649676010898459</v>
+      </c>
+      <c r="E93">
+        <v>0.07578789672220777</v>
+      </c>
+      <c r="F93">
+        <v>-0.001801087820619372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1342277349391169</v>
+        <v>0.1273581038861931</v>
       </c>
       <c r="C94">
-        <v>0.02741255045146033</v>
+        <v>-0.02540917993766812</v>
       </c>
       <c r="D94">
-        <v>0.04297767254899022</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04025825807656204</v>
+      </c>
+      <c r="E94">
+        <v>-0.05654610303556473</v>
+      </c>
+      <c r="F94">
+        <v>0.03529198050723516</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1245654673144444</v>
+        <v>0.1262985433151863</v>
       </c>
       <c r="C95">
-        <v>0.009830600718468216</v>
+        <v>-0.003242760598859942</v>
       </c>
       <c r="D95">
-        <v>0.08216889981797557</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09845142391207837</v>
+      </c>
+      <c r="E95">
+        <v>-0.05346409599199004</v>
+      </c>
+      <c r="F95">
+        <v>-0.002520551369638049</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1208781900664588</v>
+        <v>0.1136818180049829</v>
       </c>
       <c r="C96">
-        <v>-0.9869505379969998</v>
+        <v>0.9866968054949901</v>
       </c>
       <c r="D96">
-        <v>-0.01188158911431454</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05088151613089938</v>
+      </c>
+      <c r="E96">
+        <v>-0.05150682891061207</v>
+      </c>
+      <c r="F96">
+        <v>0.04242559946936076</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1940645143230196</v>
+        <v>0.1948218634696866</v>
       </c>
       <c r="C97">
-        <v>-0.005195635060308098</v>
+        <v>0.005697314131120336</v>
       </c>
       <c r="D97">
-        <v>-0.01472921231598727</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01997922384182375</v>
+      </c>
+      <c r="E97">
+        <v>-0.02181979248057461</v>
+      </c>
+      <c r="F97">
+        <v>-0.09136764896991013</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1996119910051211</v>
+        <v>0.2066664428956467</v>
       </c>
       <c r="C98">
-        <v>0.011884728252732</v>
+        <v>-0.007566117095998579</v>
       </c>
       <c r="D98">
-        <v>0.0101182851125731</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01485780206974852</v>
+      </c>
+      <c r="E98">
+        <v>0.07397352779596554</v>
+      </c>
+      <c r="F98">
+        <v>-0.09076518677119451</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05602834062800918</v>
+        <v>0.05520635831819486</v>
       </c>
       <c r="C99">
-        <v>-0.001968963041633036</v>
+        <v>0.004211463324126905</v>
       </c>
       <c r="D99">
-        <v>0.02464217885170197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03815584120148809</v>
+      </c>
+      <c r="E99">
+        <v>-0.02123118434970957</v>
+      </c>
+      <c r="F99">
+        <v>0.003579773315907801</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1417222252357831</v>
+        <v>0.1280712208799555</v>
       </c>
       <c r="C100">
-        <v>-0.03785358617513054</v>
+        <v>0.05161626162759636</v>
       </c>
       <c r="D100">
-        <v>0.4111695358285559</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.351595782091261</v>
+      </c>
+      <c r="E100">
+        <v>0.8831123685083123</v>
+      </c>
+      <c r="F100">
+        <v>-0.1651531175850004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02545746945664589</v>
+        <v>0.02855445121171624</v>
       </c>
       <c r="C101">
-        <v>0.009610900215333363</v>
+        <v>-0.008880712465964072</v>
       </c>
       <c r="D101">
-        <v>0.02408755421798738</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03052876354625689</v>
+      </c>
+      <c r="E101">
+        <v>-0.01252181282605159</v>
+      </c>
+      <c r="F101">
+        <v>-0.01502170924022401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
